--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.595354</v>
+        <v>0.01451666666666667</v>
       </c>
       <c r="H2">
-        <v>37.786062</v>
+        <v>0.04355</v>
       </c>
       <c r="I2">
-        <v>0.989145645632832</v>
+        <v>0.09504707612932513</v>
       </c>
       <c r="J2">
-        <v>0.9891456456328321</v>
+        <v>0.09504707612932513</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>243.7171333333333</v>
+        <v>0.036961</v>
       </c>
       <c r="N2">
-        <v>731.1514</v>
+        <v>0.110883</v>
       </c>
       <c r="O2">
-        <v>0.9993032963424349</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="P2">
-        <v>0.999303296342435</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="Q2">
-        <v>3069.703570198533</v>
+        <v>0.0005365505166666666</v>
       </c>
       <c r="R2">
-        <v>27627.3321317868</v>
+        <v>0.00482895465</v>
       </c>
       <c r="S2">
-        <v>0.9884565042436551</v>
+        <v>0.01698119172080156</v>
       </c>
       <c r="T2">
-        <v>0.9884565042436553</v>
+        <v>0.01698119172080156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.595354</v>
+        <v>0.01451666666666667</v>
       </c>
       <c r="H3">
-        <v>37.786062</v>
+        <v>0.04355</v>
       </c>
       <c r="I3">
-        <v>0.989145645632832</v>
+        <v>0.09504707612932513</v>
       </c>
       <c r="J3">
-        <v>0.9891456456328321</v>
+        <v>0.09504707612932513</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,25 +617,25 @@
         <v>0.1280236666666667</v>
       </c>
       <c r="N3">
-        <v>0.3840710000000001</v>
+        <v>0.384071</v>
       </c>
       <c r="O3">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657183</v>
       </c>
       <c r="P3">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657182</v>
       </c>
       <c r="Q3">
-        <v>1.612503402044667</v>
+        <v>0.001858476894444444</v>
       </c>
       <c r="R3">
-        <v>14.512530618402</v>
+        <v>0.01672629205</v>
       </c>
       <c r="S3">
-        <v>0.0005192323751843529</v>
+        <v>0.05881860416294633</v>
       </c>
       <c r="T3">
-        <v>0.000519232375184353</v>
+        <v>0.05881860416294633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.595354</v>
+        <v>0.01451666666666667</v>
       </c>
       <c r="H4">
-        <v>37.786062</v>
+        <v>0.04355</v>
       </c>
       <c r="I4">
-        <v>0.989145645632832</v>
+        <v>0.09504707612932513</v>
       </c>
       <c r="J4">
-        <v>0.9891456456328321</v>
+        <v>0.09504707612932513</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.12568</v>
       </c>
       <c r="O4">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="P4">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="Q4">
-        <v>0.5276613635733334</v>
+        <v>0.0006081515555555555</v>
       </c>
       <c r="R4">
-        <v>4.748952272159999</v>
+        <v>0.005473363999999999</v>
       </c>
       <c r="S4">
-        <v>0.0001699090139926458</v>
+        <v>0.01924728024557723</v>
       </c>
       <c r="T4">
-        <v>0.0001699090139926458</v>
+        <v>0.01924728024557723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.236675</v>
       </c>
       <c r="I5">
-        <v>0.006195566123830276</v>
+        <v>0.5165388459909994</v>
       </c>
       <c r="J5">
-        <v>0.006195566123830277</v>
+        <v>0.5165388459909994</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>243.7171333333333</v>
+        <v>0.036961</v>
       </c>
       <c r="N5">
-        <v>731.1514</v>
+        <v>0.110883</v>
       </c>
       <c r="O5">
-        <v>0.9993032963424349</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="P5">
-        <v>0.999303296342435</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="Q5">
-        <v>19.22725084388889</v>
+        <v>0.002915914891666667</v>
       </c>
       <c r="R5">
-        <v>173.045257595</v>
+        <v>0.026243234025</v>
       </c>
       <c r="S5">
-        <v>0.006191249650251117</v>
+        <v>0.09228527096488427</v>
       </c>
       <c r="T5">
-        <v>0.006191249650251119</v>
+        <v>0.09228527096488427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.236675</v>
       </c>
       <c r="I6">
-        <v>0.006195566123830276</v>
+        <v>0.5165388459909994</v>
       </c>
       <c r="J6">
-        <v>0.006195566123830277</v>
+        <v>0.5165388459909994</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,25 +803,25 @@
         <v>0.1280236666666667</v>
       </c>
       <c r="N6">
-        <v>0.3840710000000001</v>
+        <v>0.384071</v>
       </c>
       <c r="O6">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657183</v>
       </c>
       <c r="P6">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657182</v>
       </c>
       <c r="Q6">
         <v>0.01010000043611111</v>
       </c>
       <c r="R6">
-        <v>0.09090000392500001</v>
+        <v>0.090900003925</v>
       </c>
       <c r="S6">
-        <v>3.252239473823886E-06</v>
+        <v>0.3196531145870338</v>
       </c>
       <c r="T6">
-        <v>3.252239473823886E-06</v>
+        <v>0.3196531145870338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.236675</v>
       </c>
       <c r="I7">
-        <v>0.006195566123830276</v>
+        <v>0.5165388459909994</v>
       </c>
       <c r="J7">
-        <v>0.006195566123830277</v>
+        <v>0.5165388459909994</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.12568</v>
       </c>
       <c r="O7">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="P7">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="Q7">
         <v>0.003305034888888889</v>
@@ -880,10 +880,10 @@
         <v>0.02974531399999999</v>
       </c>
       <c r="S7">
-        <v>1.064234105335175E-06</v>
+        <v>0.1046004604390813</v>
       </c>
       <c r="T7">
-        <v>1.064234105335175E-06</v>
+        <v>0.1046004604390813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.177969</v>
       </c>
       <c r="I8">
-        <v>0.004658788243337701</v>
+        <v>0.3884140778796754</v>
       </c>
       <c r="J8">
-        <v>0.004658788243337702</v>
+        <v>0.3884140778796754</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>243.7171333333333</v>
+        <v>0.036961</v>
       </c>
       <c r="N8">
-        <v>731.1514</v>
+        <v>0.110883</v>
       </c>
       <c r="O8">
-        <v>0.9993032963424349</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="P8">
-        <v>0.999303296342435</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="Q8">
-        <v>14.45803150073333</v>
+        <v>0.002192637403</v>
       </c>
       <c r="R8">
-        <v>130.1222835066</v>
+        <v>0.019733736627</v>
       </c>
       <c r="S8">
-        <v>0.004655542448528747</v>
+        <v>0.06939439057082282</v>
       </c>
       <c r="T8">
-        <v>0.004655542448528747</v>
+        <v>0.06939439057082282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.177969</v>
       </c>
       <c r="I9">
-        <v>0.004658788243337701</v>
+        <v>0.3884140778796754</v>
       </c>
       <c r="J9">
-        <v>0.004658788243337702</v>
+        <v>0.3884140778796754</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,25 +989,25 @@
         <v>0.1280236666666667</v>
       </c>
       <c r="N9">
-        <v>0.3840710000000001</v>
+        <v>0.384071</v>
       </c>
       <c r="O9">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657183</v>
       </c>
       <c r="P9">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657182</v>
       </c>
       <c r="Q9">
         <v>0.007594747977666666</v>
       </c>
       <c r="R9">
-        <v>0.068352731799</v>
+        <v>0.06835273179899999</v>
       </c>
       <c r="S9">
-        <v>2.445538425760909E-06</v>
+        <v>0.2403648258157381</v>
       </c>
       <c r="T9">
-        <v>2.445538425760909E-06</v>
+        <v>0.2403648258157381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.177969</v>
       </c>
       <c r="I10">
-        <v>0.004658788243337701</v>
+        <v>0.3884140778796754</v>
       </c>
       <c r="J10">
-        <v>0.004658788243337702</v>
+        <v>0.3884140778796754</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.12568</v>
       </c>
       <c r="O10">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="P10">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="Q10">
         <v>0.002485238213333333</v>
@@ -1066,10 +1066,10 @@
         <v>0.02236714392</v>
       </c>
       <c r="S10">
-        <v>8.002563831938131E-07</v>
+        <v>0.07865486149311446</v>
       </c>
       <c r="T10">
-        <v>8.002563831938132E-07</v>
+        <v>0.07865486149311446</v>
       </c>
     </row>
   </sheetData>
